--- a/result.xlsx
+++ b/result.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>rsid</t>
   </si>
@@ -69,33 +69,6 @@
   </si>
   <si>
     <t>f_rn_eas</t>
-  </si>
-  <si>
-    <t>rs1010</t>
-  </si>
-  <si>
-    <t>0.559</t>
-  </si>
-  <si>
-    <t>0.301</t>
-  </si>
-  <si>
-    <t>0.646</t>
-  </si>
-  <si>
-    <t>0.417</t>
-  </si>
-  <si>
-    <t>0.643</t>
-  </si>
-  <si>
-    <t>0.400</t>
-  </si>
-  <si>
-    <t>0.614</t>
-  </si>
-  <si>
-    <t>0.371</t>
   </si>
 </sst>
 </file>
@@ -431,7 +404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,59 +468,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.183</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.516</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.126</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.437</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.114</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.486</v>
-      </c>
-      <c r="N2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.141</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.482</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/result.xlsx
+++ b/result.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>rsid</t>
   </si>
@@ -69,6 +69,66 @@
   </si>
   <si>
     <t>f_rn_eas</t>
+  </si>
+  <si>
+    <t>rs161802</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>rs225132</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>rs6025</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>rs1401296</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>rs16851055</t>
+  </si>
+  <si>
+    <t>rs12646447</t>
+  </si>
+  <si>
+    <t>rs2200733</t>
+  </si>
+  <si>
+    <t>rs1364044</t>
+  </si>
+  <si>
+    <t>rs6797312</t>
+  </si>
+  <si>
+    <t>rs173686</t>
+  </si>
+  <si>
+    <t>rs469568</t>
+  </si>
+  <si>
+    <t>rs556621</t>
+  </si>
+  <si>
+    <t>rs10230207</t>
+  </si>
+  <si>
+    <t>rs1800795</t>
+  </si>
+  <si>
+    <t>rs62490668</t>
+  </si>
+  <si>
+    <t>rs62490669</t>
   </si>
 </sst>
 </file>
@@ -404,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,6 +528,898 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.398</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.699</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.681</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.448</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.467</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.648</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.446</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.634</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.387</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.699</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.427</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.467</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.448</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.431</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.446</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.269</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.223</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.602</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.162</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.448</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.516</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.753</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.657</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.398</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.387</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.301</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.398</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.387</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.301</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.451</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.466</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.301</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.376</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.162</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.389</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.462</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.651</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.514</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.437</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.839</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.699</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.709</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.262</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.876</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.762</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.866</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.871</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.922</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.881</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.262</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.796</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.553</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.388</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.657</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.669</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371CFC19-6D80-4D27-B67C-24F4C4F2AA50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608F7FEA-1290-46C3-9C80-1280B5FC5BA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28065" windowHeight="8475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -518,6 +518,11 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608F7FEA-1290-46C3-9C80-1280B5FC5BA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D9930A-088F-4AA4-800D-44DD6C6E91AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28065" windowHeight="8475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -518,11 +518,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D9930A-088F-4AA4-800D-44DD6C6E91AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A6E26F-BA46-4DF0-8CB6-186006DB6643}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28065" windowHeight="8475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
